--- a/HoI2Editor/Documents/commands.xlsx
+++ b/HoI2Editor/Documents/commands.xlsx
@@ -3723,10 +3723,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Stokepile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3942,6 +3938,10 @@
   </si>
   <si>
     <t>[Int]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stockpile</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4291,8 +4291,8 @@
   <dimension ref="A1:H282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4329,10 +4329,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G2" t="s">
         <v>506</v>
@@ -4346,7 +4346,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -4357,7 +4357,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -4368,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -4379,7 +4379,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -4390,7 +4390,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -4401,7 +4401,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -4412,7 +4412,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -4423,7 +4423,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -4434,7 +4434,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -4445,7 +4445,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -4456,7 +4456,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -4467,7 +4467,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -4478,7 +4478,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -4489,7 +4489,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -4500,7 +4500,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -4511,7 +4511,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -4522,10 +4522,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G19" t="s">
         <v>922</v>
@@ -4547,10 +4547,10 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D21" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G21" t="s">
         <v>928</v>
@@ -4564,7 +4564,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -4575,7 +4575,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -4586,7 +4586,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -4597,7 +4597,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -4611,7 +4611,7 @@
         <v>642</v>
       </c>
       <c r="D26" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -4625,7 +4625,7 @@
         <v>642</v>
       </c>
       <c r="D27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -4636,10 +4636,10 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D28" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -4661,7 +4661,7 @@
         <v>642</v>
       </c>
       <c r="D30" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -4675,7 +4675,7 @@
         <v>642</v>
       </c>
       <c r="D31" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -4689,7 +4689,7 @@
         <v>642</v>
       </c>
       <c r="D32" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -4700,7 +4700,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -4714,10 +4714,10 @@
         <v>642</v>
       </c>
       <c r="D34" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E34" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -4731,7 +4731,7 @@
         <v>642</v>
       </c>
       <c r="D35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -4897,7 +4897,7 @@
         <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -4916,7 +4916,7 @@
         <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -4927,7 +4927,7 @@
         <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -4938,7 +4938,7 @@
         <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -4952,7 +4952,7 @@
         <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -4963,7 +4963,7 @@
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -4974,7 +4974,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -4985,7 +4985,7 @@
         <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -4996,7 +4996,7 @@
         <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -5010,7 +5010,7 @@
         <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -5021,7 +5021,7 @@
         <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -5032,7 +5032,7 @@
         <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -5043,7 +5043,7 @@
         <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -5054,7 +5054,7 @@
         <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -5084,7 +5084,7 @@
         <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -5095,10 +5095,10 @@
         <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F67" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -5109,10 +5109,10 @@
         <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F68" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -5123,10 +5123,10 @@
         <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F69" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -5137,10 +5137,10 @@
         <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F70" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -5151,10 +5151,10 @@
         <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F71" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -5165,7 +5165,7 @@
         <v>147</v>
       </c>
       <c r="D72" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -5176,13 +5176,13 @@
         <v>149</v>
       </c>
       <c r="D73" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E73" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G73" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -5193,7 +5193,7 @@
         <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -5204,10 +5204,10 @@
         <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D75" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -5218,7 +5218,7 @@
         <v>155</v>
       </c>
       <c r="D76" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -5245,10 +5245,10 @@
         <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D79" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -5259,10 +5259,10 @@
         <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D80" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -5273,7 +5273,7 @@
         <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -5284,7 +5284,7 @@
         <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -5298,10 +5298,10 @@
         <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F83" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -5312,10 +5312,10 @@
         <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D84" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -5326,13 +5326,13 @@
         <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D85" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E85" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -5346,7 +5346,7 @@
         <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -5360,7 +5360,7 @@
         <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -5374,7 +5374,7 @@
         <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -5399,7 +5399,7 @@
         <v>184</v>
       </c>
       <c r="D90" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -5413,7 +5413,7 @@
         <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -5424,7 +5424,7 @@
         <v>190</v>
       </c>
       <c r="D92" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -5435,7 +5435,7 @@
         <v>192</v>
       </c>
       <c r="D93" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -5587,7 +5587,7 @@
         <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -5654,13 +5654,13 @@
         <v>235</v>
       </c>
       <c r="E111" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F111" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G111" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -5697,7 +5697,7 @@
         <v>241</v>
       </c>
       <c r="E113" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F113" t="s">
         <v>235</v>
@@ -5744,7 +5744,7 @@
         <v>110</v>
       </c>
       <c r="D117" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -5758,7 +5758,7 @@
         <v>234</v>
       </c>
       <c r="D118" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -5786,10 +5786,10 @@
         <v>215</v>
       </c>
       <c r="E120" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G120" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -5822,10 +5822,10 @@
         <v>110</v>
       </c>
       <c r="D123" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E123" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F123" t="s">
         <v>214</v>
@@ -5842,10 +5842,10 @@
         <v>110</v>
       </c>
       <c r="D124" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F124" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -5859,10 +5859,10 @@
         <v>110</v>
       </c>
       <c r="D125" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F125" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -5876,7 +5876,7 @@
         <v>234</v>
       </c>
       <c r="D126" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -5890,7 +5890,7 @@
         <v>234</v>
       </c>
       <c r="D127" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -5926,7 +5926,7 @@
         <v>121</v>
       </c>
       <c r="D130" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E130" t="s">
         <v>277</v>
@@ -5946,7 +5946,7 @@
         <v>121</v>
       </c>
       <c r="D131" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E131" t="s">
         <v>277</v>
@@ -5966,7 +5966,7 @@
         <v>121</v>
       </c>
       <c r="D132" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -6104,7 +6104,7 @@
         <v>121</v>
       </c>
       <c r="D144" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
@@ -7472,7 +7472,7 @@
         <v>481</v>
       </c>
       <c r="D228" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G228" t="s">
         <v>789</v>
@@ -7540,7 +7540,7 @@
         <v>492</v>
       </c>
       <c r="D232" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G232" t="s">
         <v>487</v>
@@ -7557,7 +7557,7 @@
         <v>492</v>
       </c>
       <c r="D233" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G233" t="s">
         <v>487</v>
@@ -7696,7 +7696,7 @@
         <v>121</v>
       </c>
       <c r="D241" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G241" t="s">
         <v>487</v>
@@ -7713,7 +7713,7 @@
         <v>121</v>
       </c>
       <c r="D242" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G242" t="s">
         <v>487</v>
@@ -7730,7 +7730,7 @@
         <v>481</v>
       </c>
       <c r="D243" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G243" t="s">
         <v>487</v>
@@ -7747,7 +7747,7 @@
         <v>481</v>
       </c>
       <c r="D244" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G244" t="s">
         <v>487</v>
@@ -7761,7 +7761,7 @@
         <v>522</v>
       </c>
       <c r="D245" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G245" t="s">
         <v>487</v>
@@ -7775,7 +7775,7 @@
         <v>524</v>
       </c>
       <c r="D246" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G246" t="s">
         <v>487</v>
@@ -7925,13 +7925,13 @@
         <v>909</v>
       </c>
       <c r="B255" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C255" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E255" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F255" t="s">
         <v>642</v>
@@ -7942,13 +7942,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B256" t="s">
         <v>913</v>
       </c>
       <c r="C256" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G256" t="s">
         <v>912</v>
@@ -7956,10 +7956,10 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B257" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C257" t="s">
         <v>914</v>
@@ -7973,10 +7973,10 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B258" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C258" t="s">
         <v>915</v>
@@ -7990,16 +7990,16 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B259" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C259" t="s">
         <v>916</v>
       </c>
       <c r="D259" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E259" t="s">
         <v>917</v>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B260" t="s">
         <v>918</v>
@@ -8024,16 +8024,16 @@
         <v>919</v>
       </c>
       <c r="B261" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C261" t="s">
         <v>642</v>
       </c>
       <c r="D261" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E261" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F261" t="s">
         <v>642</v>
@@ -8047,13 +8047,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B262" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D262" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G262" t="s">
         <v>920</v>
@@ -8061,16 +8061,16 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B263" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C263" t="s">
         <v>642</v>
       </c>
       <c r="F263" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G263" t="s">
         <v>920</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B264" t="s">
         <v>923</v>
@@ -8087,7 +8087,7 @@
         <v>914</v>
       </c>
       <c r="F264" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G264" t="s">
         <v>920</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B265" t="s">
         <v>924</v>
@@ -8104,7 +8104,7 @@
         <v>642</v>
       </c>
       <c r="D265" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F265" t="s">
         <v>642</v>
@@ -8115,16 +8115,16 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B266" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C266" t="s">
         <v>642</v>
       </c>
       <c r="D266" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F266" t="s">
         <v>642</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B267" t="s">
         <v>925</v>
@@ -8147,7 +8147,7 @@
         <v>914</v>
       </c>
       <c r="E267" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G267" t="s">
         <v>926</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B268" t="s">
         <v>927</v>
@@ -8167,7 +8167,7 @@
         <v>914</v>
       </c>
       <c r="E268" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G268" t="s">
         <v>926</v>
@@ -8175,13 +8175,13 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B269" t="s">
         <v>929</v>
       </c>
       <c r="C269" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G269" t="s">
         <v>926</v>
@@ -8189,13 +8189,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B270" t="s">
         <v>930</v>
       </c>
       <c r="C270" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G270" t="s">
         <v>926</v>
@@ -8203,19 +8203,19 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B271" t="s">
-        <v>931</v>
+        <v>985</v>
       </c>
       <c r="C271" t="s">
         <v>914</v>
       </c>
       <c r="D271" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E271" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G271" t="s">
         <v>920</v>
@@ -8232,7 +8232,7 @@
         <v>211</v>
       </c>
       <c r="G272" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.15">
@@ -8246,53 +8246,53 @@
         <v>215</v>
       </c>
       <c r="G273" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B274" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C274" t="s">
         <v>914</v>
       </c>
       <c r="D274" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E274" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F274" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G274" t="s">
         <v>920</v>
       </c>
       <c r="H274" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B275" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C275" t="s">
         <v>914</v>
       </c>
       <c r="D275" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E275" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F275" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G275" t="s">
         <v>920</v>
@@ -8300,10 +8300,10 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B276" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C276" t="s">
         <v>10</v>
@@ -8320,10 +8320,10 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
+        <v>967</v>
+      </c>
+      <c r="B277" t="s">
         <v>968</v>
-      </c>
-      <c r="B277" t="s">
-        <v>969</v>
       </c>
       <c r="C277" t="s">
         <v>10</v>
@@ -8340,10 +8340,10 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
+        <v>969</v>
+      </c>
+      <c r="B278" t="s">
         <v>970</v>
-      </c>
-      <c r="B278" t="s">
-        <v>971</v>
       </c>
       <c r="C278" t="s">
         <v>914</v>
@@ -8360,10 +8360,10 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
+        <v>977</v>
+      </c>
+      <c r="B279" t="s">
         <v>978</v>
-      </c>
-      <c r="B279" t="s">
-        <v>979</v>
       </c>
       <c r="C279" t="s">
         <v>10</v>
@@ -8380,16 +8380,16 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
+        <v>971</v>
+      </c>
+      <c r="B280" t="s">
         <v>972</v>
-      </c>
-      <c r="B280" t="s">
-        <v>973</v>
       </c>
       <c r="C280" t="s">
         <v>914</v>
       </c>
       <c r="D280" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F280" t="s">
         <v>10</v>
@@ -8400,10 +8400,10 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B281" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C281" t="s">
         <v>10</v>
@@ -8420,10 +8420,10 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B282" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C282" t="s">
         <v>10</v>
